--- a/biology/Botanique/Rheubarbariboletus_armeniacus/Rheubarbariboletus_armeniacus.xlsx
+++ b/biology/Botanique/Rheubarbariboletus_armeniacus/Rheubarbariboletus_armeniacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet abricot
 Rheubarbariboletus armeniacus, le Bolet abricot, anciennement Xerocomus armeniacus, est une espèce de champignons (Fungi) basidiomycètes du genre Boletus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau rose abricot et sa chair orangée à la base du pied à la coupe, légèrement bleuissante au niveau du chapeau.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rheubarbariboletus armeniacus (Quél.) Vizzini, Simonini &amp; Gelardi[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus armeniacus Quél.[1].
-Synonymes
-Rheubarbariboletus armeniacus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rheubarbariboletus armeniacus (Quél.) Vizzini, Simonini &amp; Gelardi.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus armeniacus Quél..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rheubarbariboletus armeniacus a pour synonymes :
 Boletus armeniacus Quél.
 Boletus subtomentosus var. erythrocephalus Lucand
 Rheubarbariboletus armeniacus f. erythrocephalus (Lucand) Klofac
@@ -533,48 +582,6 @@
 Xerocomus armeniacus Anon.
 Xerocomus subtomentosus var. erythrocephalus (Lucand) E.-J.Gilbert
 Xerocomus versicolor var. armeniacus (Quél.) Skirg.
-Phylogénie
-Le naturaliste français Lucien Quélet a décrit cette espèce sous le nom de Boletus armeniacus en 1885, avant de la placer dans le genre Xerocomus dans son ouvrage Flore mycologique de la France et des pays limitrophes de 1888.
-Il a été transféré dans le nouveau genre Xerocomellus décrit par le mycologue tchèque Josef Šutara en 2008, puis dans les Rheubarbariboletus en 2015.
-Étymologie
-L'épithète armeniacus fait référence à la couleur abricot du bolet.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rheubarbariboletus_armeniacus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rheubarbariboletus armeniacus sont les suivantes :
-Son chapeau est généralement rose, mais parfois rose rougeâtre à orangé ochracé[2].
-L'hyménophore présente des pores jaunes puis verdâtres, bleuissant à la manipulation[2].
-Son stipe est jaunâtre puis subconcolore au chapeau[2].
-Sa chair est jaunâtre, orangé rhubarbe à la base du stipe, bleuissant légèrement au-dessus des tubes et au sommet du stipe mais jamais à la base[2].
-Caractéristiques microscopiques
-Ses spores mesurent 11-14 x 4,5-5 µm.
 </t>
         </is>
       </c>
@@ -600,14 +607,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naturaliste français Lucien Quélet a décrit cette espèce sous le nom de Boletus armeniacus en 1885, avant de la placer dans le genre Xerocomus dans son ouvrage Flore mycologique de la France et des pays limitrophes de 1888.
+Il a été transféré dans le nouveau genre Xerocomellus décrit par le mycologue tchèque Josef Šutara en 2008, puis dans les Rheubarbariboletus en 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète armeniacus fait référence à la couleur abricot du bolet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rheubarbariboletus armeniacus sont les suivantes :
+Son chapeau est généralement rose, mais parfois rose rougeâtre à orangé ochracé.
+L'hyménophore présente des pores jaunes puis verdâtres, bleuissant à la manipulation.
+Son stipe est jaunâtre puis subconcolore au chapeau.
+Sa chair est jaunâtre, orangé rhubarbe à la base du stipe, bleuissant légèrement au-dessus des tubes et au sommet du stipe mais jamais à la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11-14 x 4,5-5 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_armeniacus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rheubarbariboletus armeniacus f. erythrocephalus, forme à chapeau rouge, chapeau et stipe rouge sang, rouge écarlate, rouge vermillon, rouge éosine, rouge framboise, puis rouge orangé. Chair jaune bleuissant dans le haut du stipe[3].
-Rheubarbariboletus armeniacus var. venosipes, variété à pied veiné, chapeau rouge framboise sombre, assez uniforme à maturité, plus rouge que le type, mais tirant parfois sur l'orangé. Tubes et pores citrins puis jaunes, bleuissant à la coupe. Stipe plutôt robuste subconcolore au chapeau, d'un rouge plus ou moins sombre, pourpré vineux à l'humidité, parfois jaune au sommet, à base brunissante, orné dans sa partie supérieure ou jusqu'à mi-hauteur d'un réseau concolore, plus ou moins en relief. Chair citrine puis ochracée, orangé ambré dans la moitié inférieure du stipe, bleuissant plus ou moins. Spores 11-14,5 x 4,5-5,5 μm[3],[4].
-Rheubarbariboletus armeniacus f. luteolus, forme jaunâtre, chapeau jaune à possible nuance rosâtre chez les jeunes, un peu teinté d'abricot au centre en séchant. Stipe concolore au chapeau, jaunâtre, faiblement fibrilleux longitudinalement et légèrement furfuracé-squamuleux de brun rouge vers le bas. Chair jaunâtre à blanc jaunâtre, rougeâtre à la base du stipe, à peine bleuissante. Spores 10-12 x 5-5,5 μm[4],[3].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus armeniacus f. erythrocephalus, forme à chapeau rouge, chapeau et stipe rouge sang, rouge écarlate, rouge vermillon, rouge éosine, rouge framboise, puis rouge orangé. Chair jaune bleuissant dans le haut du stipe.
+Rheubarbariboletus armeniacus var. venosipes, variété à pied veiné, chapeau rouge framboise sombre, assez uniforme à maturité, plus rouge que le type, mais tirant parfois sur l'orangé. Tubes et pores citrins puis jaunes, bleuissant à la coupe. Stipe plutôt robuste subconcolore au chapeau, d'un rouge plus ou moins sombre, pourpré vineux à l'humidité, parfois jaune au sommet, à base brunissante, orné dans sa partie supérieure ou jusqu'à mi-hauteur d'un réseau concolore, plus ou moins en relief. Chair citrine puis ochracée, orangé ambré dans la moitié inférieure du stipe, bleuissant plus ou moins. Spores 11-14,5 x 4,5-5,5 μm,.
+Rheubarbariboletus armeniacus f. luteolus, forme jaunâtre, chapeau jaune à possible nuance rosâtre chez les jeunes, un peu teinté d'abricot au centre en séchant. Stipe concolore au chapeau, jaunâtre, faiblement fibrilleux longitudinalement et légèrement furfuracé-squamuleux de brun rouge vers le bas. Chair jaunâtre à blanc jaunâtre, rougeâtre à la base du stipe, à peine bleuissante. Spores 10-12 x 5-5,5 μm,.</t>
         </is>
       </c>
     </row>
